--- a/dashboard_loader/health_indig_smoking_uploader/health_indig_smoking.xlsx
+++ b/dashboard_loader/health_indig_smoking_uploader/health_indig_smoking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t xml:space="preserve">Reduce the rate of smoking amongst Indigenous Australians</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t xml:space="preserve">Indigenous smoking rates are affected by normalisation of smoking.  Indigenous Australians in the most socially disadvantaged circumstances have the highest smoking rates (AHMAC, 2015).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further Info Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Indigenous Reform Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further Info URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/coag2/indigenous</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -132,11 +144,12 @@
     <numFmt numFmtId="166" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,6 +165,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -174,14 +268,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,17 +278,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -218,7 +363,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,7 +387,55 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,56 +445,132 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -312,15 +581,15 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,17 +992,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +1059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -799,15 +1068,31 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/health_indig_smoking_uploader/health_indig_smoking.xlsx
+++ b/dashboard_loader/health_indig_smoking_uploader/health_indig_smoking.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t xml:space="preserve">Reduce the rate of smoking amongst Indigenous Australians</t>
   </si>
@@ -131,7 +131,19 @@
     <t xml:space="preserve">Data for non-Indigenous Australians for the Northern Territory should be used with care as exclusion of very remote areas from the Australian Health Survey translates to exclusion of around 25 per cent of the Northern Territory population.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sourced from: Australian Aboriginal and Torres Strait Islander Health Survey</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Aboriginal and Torres Strait Islander Health Survey 2012-13 (core component)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Aboriginal and Torres Strait Islander Social Survey 2008.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Health Ministers Advisory Council (AHMAC), 2015, Aboriginal and Torres Strait Islander Health Performance Framework 2014 Report, AHMAC, Canberra.</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,6 +494,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -582,7 +598,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B11:B14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -992,10 +1008,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1083,10 +1099,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+    <row r="11" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
